--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FBE320-6489-49AE-AAD9-0BF3ECDC115A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88CF2A-EC52-4A13-BB1E-F6A00A82C1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84B2BC0B-6A29-43F3-A3DE-855C0A576885}"/>
   </bookViews>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hannan</t>
   </si>
@@ -48,16 +42,19 @@
     <t>Ayaan</t>
   </si>
   <si>
-    <t>Photo</t>
-  </si>
-  <si>
-    <t>fgh</t>
-  </si>
-  <si>
-    <t>vhg</t>
-  </si>
-  <si>
-    <t>jhghg</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>5th</t>
   </si>
 </sst>
 </file>
@@ -110,111 +107,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>10001</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6F109C-7E42-2F58-0C47-54431F2BE0A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1242060" y="182880"/>
-          <a:ext cx="342900" cy="192881"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA23EA7-2A30-39C2-E2FF-B1EC704ABFCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="365760"/>
-          <a:ext cx="198120" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,52 +406,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6164135-9890-4A13-B5F2-124A2B7BA924}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88CF2A-EC52-4A13-BB1E-F6A00A82C1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE6EFF-D6B5-4D52-9E82-32840933E832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84B2BC0B-6A29-43F3-A3DE-855C0A576885}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Hannan</t>
   </si>
@@ -55,16 +55,93 @@
   </si>
   <si>
     <t>5th</t>
+  </si>
+  <si>
+    <t>admission</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>parentage</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>aadhar</t>
+  </si>
+  <si>
+    <t>Bashir Ahmad</t>
+  </si>
+  <si>
+    <t>mohammadayaan08128@gmail.com</t>
+  </si>
+  <si>
+    <t>0987-7880-1234</t>
+  </si>
+  <si>
+    <t>0987-7880-1235</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>0987-7880-1236</t>
+  </si>
+  <si>
+    <t>11th</t>
+  </si>
+  <si>
+    <t>0987-7880-1237</t>
+  </si>
+  <si>
+    <t>0987-7880-1238</t>
+  </si>
+  <si>
+    <t>0987-7880-1239</t>
+  </si>
+  <si>
+    <t>0987-7880-1240</t>
+  </si>
+  <si>
+    <t>0987-7880-1241</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +164,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,15 +487,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6164135-9890-4A13-B5F2-124A2B7BA924}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -422,32 +510,271 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>40180</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>6006957360</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="1">
+        <v>40181</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>6006957360</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40182</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>6006957361</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>6006957362</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>6006957363</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40185</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>6006957364</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40186</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>6006957365</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40187</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>6006957366</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{C578E438-2D30-43ED-AD38-96A064BF591D}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{FF9A3337-690A-4848-96ED-6FD9AB8D8A02}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{B9164F85-61F3-4579-9A48-29E7643C69A4}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{C552816F-BAFA-4B23-83D0-CC9A6A5F2477}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{EC9DD336-2558-4C83-B24E-02AAB9B92329}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{47B91CD6-CB10-4C5B-93AD-C39B8EF2E90D}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{F5AAEC16-BDCD-4744-90ED-0CA12AC8128B}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{FD2D8E68-8168-4CED-9C4A-47A10C9014C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE6EFF-D6B5-4D52-9E82-32840933E832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27DD119-8D7D-4516-9912-5F3BB394DC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84B2BC0B-6A29-43F3-A3DE-855C0A576885}"/>
+    <workbookView xWindow="5568" yWindow="1392" windowWidth="17280" windowHeight="8880" xr2:uid="{84B2BC0B-6A29-43F3-A3DE-855C0A576885}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>Hannan</t>
   </si>
@@ -63,9 +63,6 @@
     <t>dob</t>
   </si>
   <si>
-    <t>parentage</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -118,6 +115,33 @@
   </si>
   <si>
     <t>7th</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>sakeena</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>URPASH</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
 </sst>
 </file>
@@ -487,22 +511,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6164135-9890-4A13-B5F2-124A2B7BA924}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -519,19 +545,31 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -547,20 +585,32 @@
       <c r="E2" s="1">
         <v>40180</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>6006957360</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>6006957360</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -576,20 +626,32 @@
       <c r="E3" s="1">
         <v>40181</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>6006957360</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
-        <v>6006957360</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -597,28 +659,40 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>40182</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>6006957361</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4">
-        <v>6006957361</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -626,28 +700,40 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
         <v>40183</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>6006957362</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
-        <v>6006957362</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -655,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -663,20 +749,32 @@
       <c r="E6" s="1">
         <v>40184</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>6006957363</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
-        <v>6006957363</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -684,28 +782,40 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>40185</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>6006957364</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
-        <v>6006957364</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -713,28 +823,40 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>40186</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>6006957365</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8">
-        <v>6006957365</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -742,38 +864,50 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>40187</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>6006957366</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9">
-        <v>6006957366</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{C578E438-2D30-43ED-AD38-96A064BF591D}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{FF9A3337-690A-4848-96ED-6FD9AB8D8A02}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{B9164F85-61F3-4579-9A48-29E7643C69A4}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{C552816F-BAFA-4B23-83D0-CC9A6A5F2477}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{EC9DD336-2558-4C83-B24E-02AAB9B92329}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{47B91CD6-CB10-4C5B-93AD-C39B8EF2E90D}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{F5AAEC16-BDCD-4744-90ED-0CA12AC8128B}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{FD2D8E68-8168-4CED-9C4A-47A10C9014C8}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{C578E438-2D30-43ED-AD38-96A064BF591D}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{FF9A3337-690A-4848-96ED-6FD9AB8D8A02}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{B9164F85-61F3-4579-9A48-29E7643C69A4}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{C552816F-BAFA-4B23-83D0-CC9A6A5F2477}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{EC9DD336-2558-4C83-B24E-02AAB9B92329}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{47B91CD6-CB10-4C5B-93AD-C39B8EF2E90D}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{F5AAEC16-BDCD-4744-90ED-0CA12AC8128B}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{FD2D8E68-8168-4CED-9C4A-47A10C9014C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27DD119-8D7D-4516-9912-5F3BB394DC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AAA666-0308-4FFC-AD6F-7740310F31EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="1392" windowWidth="17280" windowHeight="8880" xr2:uid="{84B2BC0B-6A29-43F3-A3DE-855C0A576885}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84B2BC0B-6A29-43F3-A3DE-855C0A576885}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Hannan</t>
   </si>
@@ -84,48 +84,12 @@
     <t>0987-7880-1235</t>
   </si>
   <si>
-    <t>9th</t>
-  </si>
-  <si>
-    <t>10th</t>
-  </si>
-  <si>
-    <t>0987-7880-1236</t>
-  </si>
-  <si>
-    <t>11th</t>
-  </si>
-  <si>
-    <t>0987-7880-1237</t>
-  </si>
-  <si>
-    <t>0987-7880-1238</t>
-  </si>
-  <si>
-    <t>0987-7880-1239</t>
-  </si>
-  <si>
-    <t>0987-7880-1240</t>
-  </si>
-  <si>
-    <t>0987-7880-1241</t>
-  </si>
-  <si>
-    <t>6th</t>
-  </si>
-  <si>
-    <t>7th</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
     <t>mother</t>
   </si>
   <si>
-    <t>sakeena</t>
-  </si>
-  <si>
     <t>account</t>
   </si>
   <si>
@@ -142,12 +106,18 @@
   </si>
   <si>
     <t>OM</t>
+  </si>
+  <si>
+    <t>Sakeena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,10 +162,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6164135-9890-4A13-B5F2-124A2B7BA924}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
@@ -545,10 +516,10 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -560,13 +531,13 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -574,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>101</v>
@@ -582,11 +553,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
-        <v>40180</v>
+      <c r="E2" s="3">
+        <v>40545</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -601,13 +572,13 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -615,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>102</v>
@@ -623,11 +594,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
-        <v>40181</v>
+      <c r="E3" s="3">
+        <v>41927</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -642,259 +613,13 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40182</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>6006957361</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1">
-        <v>40183</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>6006957362</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>40184</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>6006957363</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>106</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1">
-        <v>40185</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>6006957364</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1">
-        <v>40186</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>6006957365</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
         <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>108</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1">
-        <v>40187</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>6006957366</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -902,12 +627,6 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{C578E438-2D30-43ED-AD38-96A064BF591D}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{FF9A3337-690A-4848-96ED-6FD9AB8D8A02}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{B9164F85-61F3-4579-9A48-29E7643C69A4}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{C552816F-BAFA-4B23-83D0-CC9A6A5F2477}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{EC9DD336-2558-4C83-B24E-02AAB9B92329}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{47B91CD6-CB10-4C5B-93AD-C39B8EF2E90D}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{F5AAEC16-BDCD-4744-90ED-0CA12AC8128B}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{FD2D8E68-8168-4CED-9C4A-47A10C9014C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AAA666-0308-4FFC-AD6F-7740310F31EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5213D4BE-68DA-498E-977E-C9813DD8ABC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84B2BC0B-6A29-43F3-A3DE-855C0A576885}"/>
   </bookViews>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
-  <si>
-    <t>Hannan</t>
-  </si>
-  <si>
-    <t>Ayaan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -109,15 +103,63 @@
   </si>
   <si>
     <t>Sakeena</t>
+  </si>
+  <si>
+    <t>Abdul Hannan</t>
+  </si>
+  <si>
+    <t>Mohammad Ayaan</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>email@gmail.com</t>
+  </si>
+  <si>
+    <t>LMN</t>
+  </si>
+  <si>
+    <t>XXXX-XXXX-XXXX</t>
+  </si>
+  <si>
+    <t>"02-01-2011"</t>
+  </si>
+  <si>
+    <t>BEEHAMA</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,13 +208,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -482,14 +615,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6164135-9890-4A13-B5F2-124A2B7BA924}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
@@ -501,48 +635,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -551,39 +685,39 @@
         <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>40545</v>
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>6006957360</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -592,34 +726,321 @@
         <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>41927</v>
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>6006957360</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
-        <v>23</v>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -627,6 +1048,13 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{C578E438-2D30-43ED-AD38-96A064BF591D}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{FF9A3337-690A-4848-96ED-6FD9AB8D8A02}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{C9F5D5C7-54EC-4099-86A1-362204457D21}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{A987C609-390C-46F6-A1E6-FBB26828ED8F}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{62615FE3-0DDC-4A3D-B51C-AD8ED3C9268B}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{8C028264-5AA4-4E45-BD33-DB9540F3B5CE}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{E1345216-816B-4258-871C-68EB72535F56}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{FB2E2430-10A0-49AC-8B6A-587F0A8A020F}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{E747E87A-8FA0-4892-B87B-8B12EBD534E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
